--- a/results/mp/logistic/corona/confidence/168/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>sc</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -79,88 +79,79 @@
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>relief</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>corona</t>
@@ -521,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,7 +523,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7941176470588235</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -640,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7808219178082192</v>
+        <v>0.4748062015503876</v>
       </c>
       <c r="C4">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D4">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>64</v>
+        <v>271</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9083333333333333</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4534883720930232</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C5">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="D5">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>282</v>
+        <v>108</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.8813559322033898</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4497354497354497</v>
+        <v>0.36</v>
       </c>
       <c r="C6">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8590078328981723</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>329</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>329</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3087248322147651</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.835509138381201</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>320</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>320</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1706349206349206</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +849,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8275862068965517</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +881,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0938337801608579</v>
+        <v>0.08310991957104558</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
@@ -940,37 +931,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.01752109020116807</v>
+        <v>0.02102879327078615</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E10">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="F10">
-        <v>0.6799999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.8125</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,37 +981,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01228733459357278</v>
+        <v>0.01274787535410765</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="F11">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.7878787878787878</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="M11">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,13 +1031,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7816901408450704</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1058,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1066,13 +1057,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1084,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1092,13 +1083,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1110,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1118,13 +1109,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7578125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1136,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1144,13 +1135,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7446808510638298</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1162,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1170,25 +1161,25 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7428571428571429</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1222,13 +1213,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1240,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1248,13 +1239,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1266,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1274,13 +1265,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1292,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1300,13 +1291,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.68</v>
+        <v>0.675</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1318,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1326,13 +1317,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6511627906976745</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1344,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1352,13 +1343,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.6461538461538462</v>
+        <v>0.6234309623430963</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1370,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1378,13 +1369,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.6411764705882353</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L25">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c r="M25">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1396,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>122</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1404,25 +1395,25 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.6192468619246861</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L26">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="M26">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1430,13 +1421,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.6142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1448,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1456,13 +1447,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.6033898305084746</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L28">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1474,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>117</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1482,13 +1473,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.5851063829787234</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L29">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1500,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1508,13 +1499,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.5056179775280899</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1526,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1534,155 +1525,51 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4901960784313725</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>26</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="K32">
-        <v>0.3846153846153846</v>
+        <v>0.01181474480151229</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33">
-        <v>0.3835616438356164</v>
-      </c>
-      <c r="L33">
-        <v>28</v>
-      </c>
-      <c r="M33">
-        <v>28</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34">
-        <v>0.0198300283286119</v>
-      </c>
-      <c r="L34">
-        <v>63</v>
-      </c>
-      <c r="M34">
-        <v>87</v>
-      </c>
-      <c r="N34">
-        <v>0.72</v>
-      </c>
-      <c r="O34">
-        <v>0.28</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35">
-        <v>0.01275389702409069</v>
-      </c>
-      <c r="L35">
-        <v>27</v>
-      </c>
-      <c r="M35">
-        <v>53</v>
-      </c>
-      <c r="N35">
-        <v>0.51</v>
-      </c>
-      <c r="O35">
-        <v>0.49</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36">
-        <v>0.008188666885031117</v>
-      </c>
-      <c r="L36">
-        <v>25</v>
-      </c>
-      <c r="M36">
-        <v>79</v>
-      </c>
-      <c r="N36">
-        <v>0.32</v>
-      </c>
-      <c r="O36">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>3028</v>
+        <v>2091</v>
       </c>
     </row>
   </sheetData>
